--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2345.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2345.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.04300760196308</v>
+        <v>0.9958560466766357</v>
       </c>
       <c r="B1">
-        <v>1.616743733200703</v>
+        <v>2.10805869102478</v>
       </c>
       <c r="C1">
-        <v>3.578688105865377</v>
+        <v>6.946327686309814</v>
       </c>
       <c r="D1">
-        <v>2.403044331852465</v>
+        <v>2.146793603897095</v>
       </c>
       <c r="E1">
-        <v>1.026130249158406</v>
+        <v>1.37790310382843</v>
       </c>
     </row>
   </sheetData>
